--- a/scripts/1928_190425.xlsx
+++ b/scripts/1928_190425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rauna\Documents\fsaeSTAR\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{268BB239-9A0C-470B-B814-7AA26C3E1DC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A207E3E7-0853-426B-8BBA-8703D8A9C96C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24669" windowHeight="6343" xr2:uid="{E1901939-58F2-4F82-8C5E-6CD93D9437A5}"/>
   </bookViews>
@@ -180,46 +180,46 @@
     <t>geometryManip</t>
   </si>
   <si>
-    <t>/meshed/WT_BASELINE_13.sim</t>
-  </si>
-  <si>
-    <t>/meshed/WT_BASELINE_18.sim</t>
-  </si>
-  <si>
-    <t>/meshed/WT_BASELINE_27.sim</t>
-  </si>
-  <si>
-    <t>/meshed/WT_YAW_3_18.sim</t>
-  </si>
-  <si>
-    <t>/meshed/WT_YAW_3_27.sim</t>
-  </si>
-  <si>
-    <t>/meshed/WT_YAW_6_18.sim</t>
-  </si>
-  <si>
-    <t>/meshed/WT_YAW_6_27.sim</t>
-  </si>
-  <si>
-    <t>/meshed/WT_YAW_9_18.sim</t>
-  </si>
-  <si>
-    <t>/meshed/WT_YAW_9_27.sim</t>
-  </si>
-  <si>
-    <t>/meshed/WT_YAW_12_18.sim</t>
-  </si>
-  <si>
-    <t>/meshed/WT_YAW_12_27.sim</t>
-  </si>
-  <si>
-    <t>/meshed/WT_YAW_15_18.sim</t>
-  </si>
-  <si>
-    <t>/meshed/WT_YAW_15_27.sim</t>
-  </si>
-  <si>
     <t>BASESIM_25-1_WT.sim</t>
+  </si>
+  <si>
+    <t>/Complete/WT_BASELINE_13.sim</t>
+  </si>
+  <si>
+    <t>/Complete/WT_BASELINE_18.sim</t>
+  </si>
+  <si>
+    <t>/Complete/WT_BASELINE_27.sim</t>
+  </si>
+  <si>
+    <t>/Complete/WT_YAW_3_18.sim</t>
+  </si>
+  <si>
+    <t>/Complete/WT_YAW_3_27.sim</t>
+  </si>
+  <si>
+    <t>/Complete/WT_YAW_6_18.sim</t>
+  </si>
+  <si>
+    <t>/Complete/WT_YAW_6_27.sim</t>
+  </si>
+  <si>
+    <t>/Complete/WT_YAW_9_18.sim</t>
+  </si>
+  <si>
+    <t>/Complete/WT_YAW_9_27.sim</t>
+  </si>
+  <si>
+    <t>/Complete/WT_YAW_12_18.sim</t>
+  </si>
+  <si>
+    <t>/Complete/WT_YAW_12_27.sim</t>
+  </si>
+  <si>
+    <t>/Complete/WT_YAW_15_18.sim</t>
+  </si>
+  <si>
+    <t>/Complete/WT_YAW_15_27.sim</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -716,10 +716,10 @@
     </row>
     <row r="13" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -767,7 +767,7 @@
         <v>22</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>23</v>
@@ -781,10 +781,10 @@
     </row>
     <row r="14" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -832,7 +832,7 @@
         <v>22</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>23</v>
@@ -846,10 +846,10 @@
     </row>
     <row r="15" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -897,7 +897,7 @@
         <v>22</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>23</v>
@@ -911,10 +911,10 @@
     </row>
     <row r="16" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -962,7 +962,7 @@
         <v>22</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>23</v>
@@ -976,10 +976,10 @@
     </row>
     <row r="17" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1027,7 +1027,7 @@
         <v>22</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>23</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="18" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1092,7 +1092,7 @@
         <v>22</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
@@ -1106,10 +1106,10 @@
     </row>
     <row r="19" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1157,7 +1157,7 @@
         <v>22</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>23</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="20" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -1222,7 +1222,7 @@
         <v>22</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>23</v>
@@ -1236,10 +1236,10 @@
     </row>
     <row r="21" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -1287,7 +1287,7 @@
         <v>22</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>23</v>
@@ -1301,10 +1301,10 @@
     </row>
     <row r="22" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -1352,7 +1352,7 @@
         <v>22</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>23</v>
@@ -1366,10 +1366,10 @@
     </row>
     <row r="23" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -1417,7 +1417,7 @@
         <v>22</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>23</v>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="24" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -1482,7 +1482,7 @@
         <v>22</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>23</v>
@@ -1496,10 +1496,10 @@
     </row>
     <row r="25" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -1547,7 +1547,7 @@
         <v>22</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>23</v>

--- a/scripts/1928_190425.xlsx
+++ b/scripts/1928_190425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rauna\Documents\fsaeSTAR\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A207E3E7-0853-426B-8BBA-8703D8A9C96C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07318B5-60F7-4A47-870A-571DE5DA9B3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24669" windowHeight="6343" xr2:uid="{E1901939-58F2-4F82-8C5E-6CD93D9437A5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="55">
   <si>
     <t>iOJDZCUKWsPIjut3CFrKXQ</t>
   </si>
@@ -141,18 +141,9 @@
     <t>15</t>
   </si>
   <si>
-    <t>13.76</t>
-  </si>
-  <si>
-    <t>18.38</t>
-  </si>
-  <si>
     <t>27.54</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -181,21 +172,6 @@
   </si>
   <si>
     <t>BASESIM_25-1_WT.sim</t>
-  </si>
-  <si>
-    <t>/Complete/WT_BASELINE_13.sim</t>
-  </si>
-  <si>
-    <t>/Complete/WT_BASELINE_18.sim</t>
-  </si>
-  <si>
-    <t>/Complete/WT_BASELINE_27.sim</t>
-  </si>
-  <si>
-    <t>/Complete/WT_YAW_3_18.sim</t>
-  </si>
-  <si>
-    <t>/Complete/WT_YAW_3_27.sim</t>
   </si>
   <si>
     <t>/Complete/WT_YAW_6_18.sim</t>
@@ -575,16 +551,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7076140-01E0-454A-827D-3A4389EF111A}">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.4609375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.61328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.15234375" style="1" customWidth="1"/>
     <col min="4" max="9" width="9.23046875" style="1"/>
     <col min="10" max="10" width="14.3828125" style="1" customWidth="1"/>
@@ -609,7 +585,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -617,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -633,7 +609,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -641,7 +617,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.4">
@@ -651,7 +627,7 @@
     </row>
     <row r="12" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -711,15 +687,15 @@
         <v>18</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -749,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>24</v>
@@ -781,10 +757,10 @@
     </row>
     <row r="14" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -814,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>24</v>
@@ -823,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P14" s="1">
         <v>1000</v>
@@ -846,10 +822,10 @@
     </row>
     <row r="15" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -879,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>24</v>
@@ -888,7 +864,7 @@
         <v>21</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P15" s="1">
         <v>1000</v>
@@ -911,10 +887,10 @@
     </row>
     <row r="16" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -944,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>24</v>
@@ -953,7 +929,7 @@
         <v>21</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P16" s="1">
         <v>1000</v>
@@ -976,10 +952,10 @@
     </row>
     <row r="17" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1018,7 +994,7 @@
         <v>21</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P17" s="1">
         <v>1000</v>
@@ -1041,10 +1017,10 @@
     </row>
     <row r="18" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1074,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>24</v>
@@ -1083,7 +1059,7 @@
         <v>21</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P18" s="1">
         <v>1000</v>
@@ -1106,10 +1082,10 @@
     </row>
     <row r="19" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1139,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>24</v>
@@ -1148,7 +1124,7 @@
         <v>21</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P19" s="1">
         <v>1000</v>
@@ -1171,10 +1147,10 @@
     </row>
     <row r="20" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -1204,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>24</v>
@@ -1213,7 +1189,7 @@
         <v>21</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P20" s="1">
         <v>1000</v>
@@ -1231,331 +1207,6 @@
         <v>22</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P21" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P22" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P23" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P24" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P25" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1620,7 +1271,7 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -1628,7 +1279,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -1644,7 +1295,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -1652,7 +1303,7 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
